--- a/rapport/P4_01_analyse.xlsx
+++ b/rapport/P4_01_analyse.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G17"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
